--- a/DSN_Complex_List.xlsx
+++ b/DSN_Complex_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudia/Dropbox (Indigo Wire Networks)/scripts/python/2020/fuzzy_wuzzy_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CB72E-8D11-3546-A22A-100A52DC368A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12E8A06-642C-974E-8B43-7CA8EC0FB5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="4760" windowWidth="28040" windowHeight="17440" xr2:uid="{D1340A7E-EDCF-534A-A151-71C73B3D6759}"/>
+    <workbookView xWindow="1720" yWindow="5940" windowWidth="27420" windowHeight="12960" xr2:uid="{D1340A7E-EDCF-534A-A151-71C73B3D6759}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D49CB0E-75A5-CA4B-93A7-60FD206FBF9C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,19 +470,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
